--- a/March 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
+++ b/March 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\August 2018\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\March 2018\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,40 +474,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.0267892676044</c:v>
+                  <c:v>17.220951141591499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.062118046998901</c:v>
+                  <c:v>17.242152839816001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0802512311915</c:v>
+                  <c:v>17.242913099248497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.125044752723401</c:v>
+                  <c:v>17.2486177877724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.9723253035082</c:v>
+                  <c:v>17.116889998463702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8272251647251</c:v>
+                  <c:v>17.142992893502498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.626934833045098</c:v>
+                  <c:v>17.1121339812359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.4266445013651</c:v>
+                  <c:v>17.0790263195499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.1549689011471</c:v>
+                  <c:v>16.8797567698299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.821996041665301</c:v>
+                  <c:v>16.6242684846261</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.413285117667499</c:v>
+                  <c:v>16.312561463938298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.822857763708701</c:v>
+                  <c:v>15.864304308274301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,40 +600,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.469993761509301</c:v>
+                  <c:v>19.868867556941698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.430626613748601</c:v>
+                  <c:v>19.8217487573338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.391581226607901</c:v>
+                  <c:v>19.7700766519926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.3306436858749</c:v>
+                  <c:v>19.682046102729501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.082779225556102</c:v>
+                  <c:v>19.4892843925591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.864527389753498</c:v>
+                  <c:v>19.499689625012401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.6208939646543</c:v>
+                  <c:v>19.4616539219945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.3903884707379</c:v>
+                  <c:v>19.421369469557302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.069133875134501</c:v>
+                  <c:v>19.186215966080699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.687818035660101</c:v>
+                  <c:v>18.8948437271203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.230764131669599</c:v>
+                  <c:v>18.547252752675998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.582325201719701</c:v>
+                  <c:v>18.055934852504102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,40 +726,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.917188730918099</c:v>
+                  <c:v>22.609741785489398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.908585802204698</c:v>
+                  <c:v>22.592031839737899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.885336047102601</c:v>
+                  <c:v>22.554461388190401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.855989770446502</c:v>
+                  <c:v>22.494634146514798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.596435432257699</c:v>
+                  <c:v>22.292516900830702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.366493718584998</c:v>
+                  <c:v>22.293566597770301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.1357966286572</c:v>
+                  <c:v>22.2651332579733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.9182274699122</c:v>
+                  <c:v>22.234451168756898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.6616545501657</c:v>
+                  <c:v>22.047309481384797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.345020386548299</c:v>
+                  <c:v>21.803949058528801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.952648158414799</c:v>
+                  <c:v>21.504369900189001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.381827239493298</c:v>
+                  <c:v>21.070666179342499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,40 +1036,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.0267892676044</c:v>
+                  <c:v>17.220951141591499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.062957401262</c:v>
+                  <c:v>17.238565146123598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.1016198889651</c:v>
+                  <c:v>17.257393909588799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.187536528305198</c:v>
+                  <c:v>17.2992356061783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.224673687057102</c:v>
+                  <c:v>17.317341162020501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.2697839099398</c:v>
+                  <c:v>17.339332566183103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.261075949939798</c:v>
+                  <c:v>17.335091522183102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.252367989939803</c:v>
+                  <c:v>17.330850478183098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.0537825757586</c:v>
+                  <c:v>17.234128359110002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.748535805866101</c:v>
+                  <c:v>17.0854554971745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.443289035973603</c:v>
+                  <c:v>16.936782635239002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.0769929121027</c:v>
+                  <c:v>16.758375200916401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,40 +1159,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.469993761509301</c:v>
+                  <c:v>19.868867556941698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.512129051831799</c:v>
+                  <c:v>19.8893875871353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.554264342154397</c:v>
+                  <c:v>19.909907617328802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.638534922799597</c:v>
+                  <c:v>19.950947677715902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.635725903444701</c:v>
+                  <c:v>19.949607018102999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.632916884089898</c:v>
+                  <c:v>19.948266358490098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.571867530111398</c:v>
+                  <c:v>19.918531786102999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.510818176132897</c:v>
+                  <c:v>19.8887972137159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.205571406240399</c:v>
+                  <c:v>19.740124351780398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.900324636348003</c:v>
+                  <c:v>19.5914514898449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.595077866455497</c:v>
+                  <c:v>19.442778627909398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.228781742584502</c:v>
+                  <c:v>19.2643711935869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,40 +1286,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.917188730918099</c:v>
+                  <c:v>22.609741785489398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.9593240212407</c:v>
+                  <c:v>22.630261815682999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.001459311563302</c:v>
+                  <c:v>22.650781845876502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.085729892208402</c:v>
+                  <c:v>22.691821906263602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.082920872853599</c:v>
+                  <c:v>22.690481246650698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.080111853498803</c:v>
+                  <c:v>22.689140587037802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.019062499520302</c:v>
+                  <c:v>22.659406014650699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.958013145541798</c:v>
+                  <c:v>22.6296714422636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.6527663756493</c:v>
+                  <c:v>22.480998580328098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.347519605756801</c:v>
+                  <c:v>22.332325718392699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.042272835864399</c:v>
+                  <c:v>22.183652856457201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.6759767119934</c:v>
+                  <c:v>22.0052454221346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,8 +1575,8 @@
         <c:axId val="1211617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="18"/>
+          <c:max val="24"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5250,51 +5250,51 @@
       </c>
       <c r="AK4">
         <f>BE4</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL4">
         <f t="shared" ref="AL4:AV6" si="0">BF4</f>
-        <v>22084727.301261999</v>
+        <v>17249167.161723599</v>
       </c>
       <c r="AM4">
         <f t="shared" si="0"/>
-        <v>22146661.0613789</v>
+        <v>17279329.114278499</v>
       </c>
       <c r="AN4">
         <f t="shared" si="0"/>
-        <v>22284291.6394163</v>
+        <v>17346355.675511599</v>
       </c>
       <c r="AO4">
         <f t="shared" si="0"/>
-        <v>22357731.315857101</v>
+        <v>17382148.118500501</v>
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>22443943.109939799</v>
+        <v>17424165.334183101</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="0"/>
-        <v>22443943.109939799</v>
+        <v>17424165.334183101</v>
       </c>
       <c r="AR4">
         <f t="shared" si="0"/>
-        <v>22429816.633393001</v>
+        <v>17417284.857690599</v>
       </c>
       <c r="AS4">
         <f t="shared" si="0"/>
-        <v>22107715.747371498</v>
+        <v>17260401.606077701</v>
       </c>
       <c r="AT4">
         <f t="shared" si="0"/>
-        <v>21785614.86135</v>
+        <v>17103518.354464799</v>
       </c>
       <c r="AU4">
         <f t="shared" si="0"/>
-        <v>21463513.975328501</v>
+        <v>16946635.102851901</v>
       </c>
       <c r="AV4">
         <f t="shared" si="0"/>
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
       <c r="BC4" s="9" t="s">
         <v>12</v>
@@ -5303,40 +5303,40 @@
         <v>13</v>
       </c>
       <c r="BE4" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BF4" s="9">
-        <v>22084727.301261999</v>
+        <v>17249167.161723599</v>
       </c>
       <c r="BG4" s="9">
-        <v>22146661.0613789</v>
+        <v>17279329.114278499</v>
       </c>
       <c r="BH4" s="9">
-        <v>22284291.6394163</v>
+        <v>17346355.675511599</v>
       </c>
       <c r="BI4" s="9">
-        <v>22357731.315857101</v>
+        <v>17382148.118500501</v>
       </c>
       <c r="BJ4" s="9">
-        <v>22443943.109939799</v>
+        <v>17424165.334183101</v>
       </c>
       <c r="BK4" s="9">
-        <v>22443943.109939799</v>
+        <v>17424165.334183101</v>
       </c>
       <c r="BL4" s="9">
-        <v>22429816.633393001</v>
+        <v>17417284.857690599</v>
       </c>
       <c r="BM4" s="9">
-        <v>22107715.747371498</v>
+        <v>17260401.606077701</v>
       </c>
       <c r="BN4" s="9">
-        <v>21785614.86135</v>
+        <v>17103518.354464799</v>
       </c>
       <c r="BO4" s="9">
-        <v>21463513.975328501</v>
+        <v>16946635.102851901</v>
       </c>
       <c r="BP4" s="9">
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
@@ -5378,51 +5378,51 @@
       </c>
       <c r="AK5">
         <f t="shared" ref="AK5:AK6" si="1">BE5</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL5">
         <f t="shared" si="0"/>
-        <v>25526174.148605999</v>
+        <v>19896227.597199801</v>
       </c>
       <c r="AM5">
         <f t="shared" si="0"/>
-        <v>25582354.535702799</v>
+        <v>19923587.637457799</v>
       </c>
       <c r="AN5">
         <f t="shared" si="0"/>
-        <v>25694715.309896398</v>
+        <v>19978307.717974</v>
       </c>
       <c r="AO5">
         <f t="shared" si="0"/>
-        <v>25702580.564089902</v>
+        <v>19982170.9344901</v>
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>25710445.818283498</v>
+        <v>19986034.151006199</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="0"/>
-        <v>25646025.641079199</v>
+        <v>19954657.500683598</v>
       </c>
       <c r="AR5">
         <f t="shared" si="0"/>
-        <v>25581605.463874899</v>
+        <v>19923280.850361101</v>
       </c>
       <c r="AS5">
         <f t="shared" si="0"/>
-        <v>25259504.5778534</v>
+        <v>19766397.5987482</v>
       </c>
       <c r="AT5">
         <f t="shared" si="0"/>
-        <v>24937403.691831801</v>
+        <v>19609514.347135302</v>
       </c>
       <c r="AU5">
         <f t="shared" si="0"/>
-        <v>24615302.805810299</v>
+        <v>19452631.095522299</v>
       </c>
       <c r="AV5">
         <f t="shared" si="0"/>
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
       <c r="BC5" s="9" t="s">
         <v>12</v>
@@ -5431,40 +5431,40 @@
         <v>14</v>
       </c>
       <c r="BE5" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BF5" s="9">
-        <v>25526174.148605999</v>
+        <v>19896227.597199801</v>
       </c>
       <c r="BG5" s="9">
-        <v>25582354.535702799</v>
+        <v>19923587.637457799</v>
       </c>
       <c r="BH5" s="9">
-        <v>25694715.309896398</v>
+        <v>19978307.717974</v>
       </c>
       <c r="BI5" s="9">
-        <v>25702580.564089902</v>
+        <v>19982170.9344901</v>
       </c>
       <c r="BJ5" s="9">
-        <v>25710445.818283498</v>
+        <v>19986034.151006199</v>
       </c>
       <c r="BK5" s="9">
-        <v>25646025.641079199</v>
+        <v>19954657.500683598</v>
       </c>
       <c r="BL5" s="9">
-        <v>25581605.463874899</v>
+        <v>19923280.850361101</v>
       </c>
       <c r="BM5" s="9">
-        <v>25259504.5778534</v>
+        <v>19766397.5987482</v>
       </c>
       <c r="BN5" s="9">
-        <v>24937403.691831801</v>
+        <v>19609514.347135302</v>
       </c>
       <c r="BO5" s="9">
-        <v>24615302.805810299</v>
+        <v>19452631.095522299</v>
       </c>
       <c r="BP5" s="9">
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
@@ -5476,15 +5476,15 @@
       </c>
       <c r="C6">
         <f>X63</f>
-        <v>22.0267892676044</v>
+        <v>17.220951141591499</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E17" si="2">Y63</f>
-        <v>25.469993761509301</v>
+        <v>19.868867556941698</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>28.917188730918099</v>
+        <v>22.609741785489398</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -5494,15 +5494,15 @@
       </c>
       <c r="J6">
         <f>AK$19/1000000</f>
-        <v>22.0267892676044</v>
+        <v>17.220951141591499</v>
       </c>
       <c r="K6">
         <f>AK$20/1000000</f>
-        <v>25.469993761509301</v>
+        <v>19.868867556941698</v>
       </c>
       <c r="L6">
         <f>AK$21/1000000</f>
-        <v>28.917188730918099</v>
+        <v>22.609741785489398</v>
       </c>
       <c r="AI6" t="s">
         <v>12</v>
@@ -5512,51 +5512,51 @@
       </c>
       <c r="AK6">
         <f t="shared" si="1"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL6">
         <f t="shared" si="0"/>
-        <v>28973369.118014898</v>
+        <v>22637101.825747501</v>
       </c>
       <c r="AM6">
         <f t="shared" si="0"/>
-        <v>29029549.505111702</v>
+        <v>22664461.866005599</v>
       </c>
       <c r="AN6">
         <f t="shared" si="0"/>
-        <v>29141910.279305201</v>
+        <v>22719181.946521699</v>
       </c>
       <c r="AO6">
         <f t="shared" si="0"/>
-        <v>29149775.533498801</v>
+        <v>22723045.163037799</v>
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>29157640.787692301</v>
+        <v>22726908.379553899</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>29093220.610488001</v>
+        <v>22695531.729231399</v>
       </c>
       <c r="AR6">
         <f t="shared" si="0"/>
-        <v>29028800.433283702</v>
+        <v>22664155.078908801</v>
       </c>
       <c r="AS6">
         <f t="shared" si="0"/>
-        <v>28706699.547262199</v>
+        <v>22507271.827295899</v>
       </c>
       <c r="AT6">
         <f t="shared" si="0"/>
-        <v>28384598.661240701</v>
+        <v>22350388.575683001</v>
       </c>
       <c r="AU6">
         <f t="shared" si="0"/>
-        <v>28062497.775219198</v>
+        <v>22193505.3240701</v>
       </c>
       <c r="AV6">
         <f t="shared" si="0"/>
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
       <c r="BC6" s="9" t="s">
         <v>12</v>
@@ -5565,40 +5565,40 @@
         <v>15</v>
       </c>
       <c r="BE6" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BF6" s="9">
-        <v>28973369.118014898</v>
+        <v>22637101.825747501</v>
       </c>
       <c r="BG6" s="9">
-        <v>29029549.505111702</v>
+        <v>22664461.866005599</v>
       </c>
       <c r="BH6" s="9">
-        <v>29141910.279305201</v>
+        <v>22719181.946521699</v>
       </c>
       <c r="BI6" s="9">
-        <v>29149775.533498801</v>
+        <v>22723045.163037799</v>
       </c>
       <c r="BJ6" s="9">
-        <v>29157640.787692301</v>
+        <v>22726908.379553899</v>
       </c>
       <c r="BK6" s="9">
-        <v>29093220.610488001</v>
+        <v>22695531.729231399</v>
       </c>
       <c r="BL6" s="9">
-        <v>29028800.433283702</v>
+        <v>22664155.078908801</v>
       </c>
       <c r="BM6" s="9">
-        <v>28706699.547262199</v>
+        <v>22507271.827295899</v>
       </c>
       <c r="BN6" s="9">
-        <v>28384598.661240701</v>
+        <v>22350388.575683001</v>
       </c>
       <c r="BO6" s="9">
-        <v>28062497.775219198</v>
+        <v>22193505.3240701</v>
       </c>
       <c r="BP6" s="9">
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
@@ -5610,15 +5610,15 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C17" si="3">X64</f>
-        <v>22.062118046998901</v>
+        <v>17.242152839816001</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>25.430626613748601</v>
+        <v>19.8217487573338</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>28.908585802204698</v>
+        <v>22.592031839737899</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -5628,15 +5628,15 @@
       </c>
       <c r="J7">
         <f>AL$19/1000000</f>
-        <v>22.062957401262</v>
+        <v>17.238565146123598</v>
       </c>
       <c r="K7">
         <f>AL$20/1000000</f>
-        <v>25.512129051831799</v>
+        <v>19.8893875871353</v>
       </c>
       <c r="L7">
         <f>AL$21/1000000</f>
-        <v>28.9593240212407</v>
+        <v>22.630261815682999</v>
       </c>
       <c r="BC7" s="9" t="s">
         <v>16</v>
@@ -5645,40 +5645,40 @@
         <v>13</v>
       </c>
       <c r="BE7" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BF7" s="9">
-        <v>22073842.351261999</v>
+        <v>17243866.153923601</v>
       </c>
       <c r="BG7" s="9">
-        <v>22124140.475171998</v>
+        <v>17268361.511933699</v>
       </c>
       <c r="BH7" s="9">
-        <v>22235914.0838608</v>
+        <v>17322795.640845001</v>
       </c>
       <c r="BI7" s="9">
-        <v>22291202.501457099</v>
+        <v>17349744.640260499</v>
       </c>
       <c r="BJ7" s="9">
-        <v>22356863.509939801</v>
+        <v>17381748.950183101</v>
       </c>
       <c r="BK7" s="9">
-        <v>22352509.529939801</v>
+        <v>17379628.428183101</v>
       </c>
       <c r="BL7" s="9">
-        <v>22348155.5499398</v>
+        <v>17377507.906183101</v>
       </c>
       <c r="BM7" s="9">
-        <v>22080749.161564998</v>
+        <v>17247264.982593801</v>
       </c>
       <c r="BN7" s="9">
-        <v>21767075.333608001</v>
+        <v>17094486.925819598</v>
       </c>
       <c r="BO7" s="9">
-        <v>21453401.505651101</v>
+        <v>16941708.8690455</v>
       </c>
       <c r="BP7" s="9">
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
@@ -5690,15 +5690,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>22.0802512311915</v>
+        <v>17.242913099248497</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>25.391581226607901</v>
+        <v>19.7700766519926</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>28.885336047102601</v>
+        <v>22.554461388190401</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5708,15 +5708,15 @@
       </c>
       <c r="J8">
         <f>AM$19/1000000</f>
-        <v>22.1016198889651</v>
+        <v>17.257393909588799</v>
       </c>
       <c r="K8">
         <f>AM$20/1000000</f>
-        <v>25.554264342154397</v>
+        <v>19.909907617328802</v>
       </c>
       <c r="L8">
         <f>AM$21/1000000</f>
-        <v>29.001459311563302</v>
+        <v>22.650781845876502</v>
       </c>
       <c r="BC8" s="9" t="s">
         <v>16</v>
@@ -5725,40 +5725,40 @@
         <v>14</v>
       </c>
       <c r="BE8" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BF8" s="9">
-        <v>25519151.6002189</v>
+        <v>19892807.5921675</v>
       </c>
       <c r="BG8" s="9">
-        <v>25568309.4389286</v>
+        <v>19916747.627393302</v>
       </c>
       <c r="BH8" s="9">
-        <v>25666625.116347998</v>
+        <v>19964627.6978449</v>
       </c>
       <c r="BI8" s="9">
-        <v>25669153.233767301</v>
+        <v>19965888.976296499</v>
       </c>
       <c r="BJ8" s="9">
-        <v>25671681.3511867</v>
+        <v>19967150.254748199</v>
       </c>
       <c r="BK8" s="9">
-        <v>25608946.585595299</v>
+        <v>19936594.6433933</v>
       </c>
       <c r="BL8" s="9">
-        <v>25546211.820003901</v>
+        <v>19906039.032038499</v>
       </c>
       <c r="BM8" s="9">
-        <v>25232537.9920469</v>
+        <v>19753260.9752643</v>
       </c>
       <c r="BN8" s="9">
-        <v>24918864.1640899</v>
+        <v>19600482.918490101</v>
       </c>
       <c r="BO8" s="9">
-        <v>24605190.336132899</v>
+        <v>19447704.861715902</v>
       </c>
       <c r="BP8" s="9">
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
@@ -5770,15 +5770,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>22.125044752723401</v>
+        <v>17.2486177877724</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>25.3306436858749</v>
+        <v>19.682046102729501</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>28.855989770446502</v>
+        <v>22.494634146514798</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -5788,15 +5788,15 @@
       </c>
       <c r="J9">
         <f>AN$19/1000000</f>
-        <v>22.187536528305198</v>
+        <v>17.2992356061783</v>
       </c>
       <c r="K9">
         <f>AN$20/1000000</f>
-        <v>25.638534922799597</v>
+        <v>19.950947677715902</v>
       </c>
       <c r="L9">
         <f>AN$21/1000000</f>
-        <v>29.085729892208402</v>
+        <v>22.691821906263602</v>
       </c>
       <c r="AI9" t="s">
         <v>16</v>
@@ -5806,51 +5806,51 @@
       </c>
       <c r="AK9">
         <f>BE7</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL9">
         <f t="shared" ref="AL9:AV11" si="4">BF7</f>
-        <v>22073842.351261999</v>
+        <v>17243866.153923601</v>
       </c>
       <c r="AM9">
         <f t="shared" si="4"/>
-        <v>22124140.475171998</v>
+        <v>17268361.511933699</v>
       </c>
       <c r="AN9">
         <f t="shared" si="4"/>
-        <v>22235914.0838608</v>
+        <v>17322795.640845001</v>
       </c>
       <c r="AO9">
         <f t="shared" si="4"/>
-        <v>22291202.501457099</v>
+        <v>17349744.640260499</v>
       </c>
       <c r="AP9">
         <f t="shared" si="4"/>
-        <v>22356863.509939801</v>
+        <v>17381748.950183101</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="4"/>
-        <v>22352509.529939801</v>
+        <v>17379628.428183101</v>
       </c>
       <c r="AR9">
         <f t="shared" si="4"/>
-        <v>22348155.5499398</v>
+        <v>17377507.906183101</v>
       </c>
       <c r="AS9">
         <f t="shared" si="4"/>
-        <v>22080749.161564998</v>
+        <v>17247264.982593801</v>
       </c>
       <c r="AT9">
         <f t="shared" si="4"/>
-        <v>21767075.333608001</v>
+        <v>17094486.925819598</v>
       </c>
       <c r="AU9">
         <f t="shared" si="4"/>
-        <v>21453401.505651101</v>
+        <v>16941708.8690455</v>
       </c>
       <c r="AV9">
         <f t="shared" si="4"/>
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
       <c r="BC9" s="9" t="s">
         <v>16</v>
@@ -5859,40 +5859,40 @@
         <v>15</v>
       </c>
       <c r="BE9" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BF9" s="9">
-        <v>28966346.569627799</v>
+        <v>22633681.8207152</v>
       </c>
       <c r="BG9" s="9">
-        <v>29015504.4083375</v>
+        <v>22657621.855941001</v>
       </c>
       <c r="BH9" s="9">
-        <v>29113820.085756801</v>
+        <v>22705501.926392701</v>
       </c>
       <c r="BI9" s="9">
-        <v>29116348.2031762</v>
+        <v>22706763.2048443</v>
       </c>
       <c r="BJ9" s="9">
-        <v>29118876.320595499</v>
+        <v>22708024.483295899</v>
       </c>
       <c r="BK9" s="9">
-        <v>29056141.555004202</v>
+        <v>22677468.871941</v>
       </c>
       <c r="BL9" s="9">
-        <v>28993406.7894128</v>
+        <v>22646913.260586198</v>
       </c>
       <c r="BM9" s="9">
-        <v>28679732.9614558</v>
+        <v>22494135.203811999</v>
       </c>
       <c r="BN9" s="9">
-        <v>28366059.133498799</v>
+        <v>22341357.1470378</v>
       </c>
       <c r="BO9" s="9">
-        <v>28052385.305541798</v>
+        <v>22188579.090263601</v>
       </c>
       <c r="BP9" s="9">
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
@@ -5904,15 +5904,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>21.9723253035082</v>
+        <v>17.116889998463702</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>25.082779225556102</v>
+        <v>19.4892843925591</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>28.596435432257699</v>
+        <v>22.292516900830702</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5922,15 +5922,15 @@
       </c>
       <c r="J10">
         <f>AO$19/1000000</f>
-        <v>22.224673687057102</v>
+        <v>17.317341162020501</v>
       </c>
       <c r="K10">
         <f>AO$20/1000000</f>
-        <v>25.635725903444701</v>
+        <v>19.949607018102999</v>
       </c>
       <c r="L10">
         <f>AO$21/1000000</f>
-        <v>29.082920872853599</v>
+        <v>22.690481246650698</v>
       </c>
       <c r="AI10" t="s">
         <v>16</v>
@@ -5940,51 +5940,51 @@
       </c>
       <c r="AK10">
         <f t="shared" ref="AK10:AK11" si="5">BE8</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL10">
         <f t="shared" si="4"/>
-        <v>25519151.6002189</v>
+        <v>19892807.5921675</v>
       </c>
       <c r="AM10">
         <f t="shared" si="4"/>
-        <v>25568309.4389286</v>
+        <v>19916747.627393302</v>
       </c>
       <c r="AN10">
         <f t="shared" si="4"/>
-        <v>25666625.116347998</v>
+        <v>19964627.6978449</v>
       </c>
       <c r="AO10">
         <f t="shared" si="4"/>
-        <v>25669153.233767301</v>
+        <v>19965888.976296499</v>
       </c>
       <c r="AP10">
         <f t="shared" si="4"/>
-        <v>25671681.3511867</v>
+        <v>19967150.254748199</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="4"/>
-        <v>25608946.585595299</v>
+        <v>19936594.6433933</v>
       </c>
       <c r="AR10">
         <f t="shared" si="4"/>
-        <v>25546211.820003901</v>
+        <v>19906039.032038499</v>
       </c>
       <c r="AS10">
         <f t="shared" si="4"/>
-        <v>25232537.9920469</v>
+        <v>19753260.9752643</v>
       </c>
       <c r="AT10">
         <f t="shared" si="4"/>
-        <v>24918864.1640899</v>
+        <v>19600482.918490101</v>
       </c>
       <c r="AU10">
         <f t="shared" si="4"/>
-        <v>24605190.336132899</v>
+        <v>19447704.861715902</v>
       </c>
       <c r="AV10">
         <f t="shared" si="4"/>
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
       <c r="BC10" s="9" t="s">
         <v>17</v>
@@ -5993,40 +5993,40 @@
         <v>13</v>
       </c>
       <c r="BE10" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BF10" s="9">
-        <v>22068399.876262002</v>
+        <v>17241215.650023598</v>
       </c>
       <c r="BG10" s="9">
-        <v>22112880.182068601</v>
+        <v>17262877.710761201</v>
       </c>
       <c r="BH10" s="9">
-        <v>22211725.306083001</v>
+        <v>17311015.623511601</v>
       </c>
       <c r="BI10" s="9">
-        <v>22257938.094257101</v>
+        <v>17333542.9011405</v>
       </c>
       <c r="BJ10" s="9">
-        <v>22313323.7099398</v>
+        <v>17360540.758183099</v>
       </c>
       <c r="BK10" s="9">
-        <v>22306792.739939801</v>
+        <v>17357359.9751831</v>
       </c>
       <c r="BL10" s="9">
-        <v>22300261.769939799</v>
+        <v>17354179.1921831</v>
       </c>
       <c r="BM10" s="9">
-        <v>22067265.868661799</v>
+        <v>17240696.670851901</v>
       </c>
       <c r="BN10" s="9">
-        <v>21757805.569737099</v>
+        <v>17089971.211497098</v>
       </c>
       <c r="BO10" s="9">
-        <v>21448345.270812299</v>
+        <v>16939245.752142198</v>
       </c>
       <c r="BP10" s="9">
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
@@ -6038,15 +6038,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>21.8272251647251</v>
+        <v>17.142992893502498</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>24.864527389753498</v>
+        <v>19.499689625012401</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>28.366493718584998</v>
+        <v>22.293566597770301</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -6056,15 +6056,15 @@
       </c>
       <c r="J11">
         <f>AP$19/1000000</f>
-        <v>22.2697839099398</v>
+        <v>17.339332566183103</v>
       </c>
       <c r="K11">
         <f>AP$20/1000000</f>
-        <v>25.632916884089898</v>
+        <v>19.948266358490098</v>
       </c>
       <c r="L11">
         <f>AP$21/1000000</f>
-        <v>29.080111853498803</v>
+        <v>22.689140587037802</v>
       </c>
       <c r="AI11" t="s">
         <v>16</v>
@@ -6074,51 +6074,51 @@
       </c>
       <c r="AK11">
         <f t="shared" si="5"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>28966346.569627799</v>
+        <v>22633681.8207152</v>
       </c>
       <c r="AM11">
         <f t="shared" si="4"/>
-        <v>29015504.4083375</v>
+        <v>22657621.855941001</v>
       </c>
       <c r="AN11">
         <f t="shared" si="4"/>
-        <v>29113820.085756801</v>
+        <v>22705501.926392701</v>
       </c>
       <c r="AO11">
         <f t="shared" si="4"/>
-        <v>29116348.2031762</v>
+        <v>22706763.2048443</v>
       </c>
       <c r="AP11">
         <f t="shared" si="4"/>
-        <v>29118876.320595499</v>
+        <v>22708024.483295899</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="4"/>
-        <v>29056141.555004202</v>
+        <v>22677468.871941</v>
       </c>
       <c r="AR11">
         <f t="shared" si="4"/>
-        <v>28993406.7894128</v>
+        <v>22646913.260586198</v>
       </c>
       <c r="AS11">
         <f t="shared" si="4"/>
-        <v>28679732.9614558</v>
+        <v>22494135.203811999</v>
       </c>
       <c r="AT11">
         <f t="shared" si="4"/>
-        <v>28366059.133498799</v>
+        <v>22341357.1470378</v>
       </c>
       <c r="AU11">
         <f t="shared" si="4"/>
-        <v>28052385.305541798</v>
+        <v>22188579.090263601</v>
       </c>
       <c r="AV11">
         <f t="shared" si="4"/>
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
       <c r="BC11" s="9" t="s">
         <v>17</v>
@@ -6127,40 +6127,40 @@
         <v>14</v>
       </c>
       <c r="BE11" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BF11" s="9">
-        <v>25515640.3260254</v>
+        <v>19891097.589651398</v>
       </c>
       <c r="BG11" s="9">
-        <v>25561286.890541501</v>
+        <v>19913327.622361101</v>
       </c>
       <c r="BH11" s="9">
-        <v>25652580.0195738</v>
+        <v>19957787.687780399</v>
       </c>
       <c r="BI11" s="9">
-        <v>25652439.568606</v>
+        <v>19957747.9971998</v>
       </c>
       <c r="BJ11" s="9">
-        <v>25652299.117638301</v>
+        <v>19957708.3066191</v>
       </c>
       <c r="BK11" s="9">
-        <v>25590407.057853401</v>
+        <v>19927563.2147482</v>
       </c>
       <c r="BL11" s="9">
-        <v>25528514.9980684</v>
+        <v>19897418.122877199</v>
       </c>
       <c r="BM11" s="9">
-        <v>25219054.6991437</v>
+        <v>19746692.663522299</v>
       </c>
       <c r="BN11" s="9">
-        <v>24909594.4002189</v>
+        <v>19595967.2041675</v>
       </c>
       <c r="BO11" s="9">
-        <v>24600134.101294201</v>
+        <v>19445241.744812701</v>
       </c>
       <c r="BP11" s="9">
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
@@ -6172,15 +6172,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>21.626934833045098</v>
+        <v>17.1121339812359</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>24.6208939646543</v>
+        <v>19.4616539219945</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>28.1357966286572</v>
+        <v>22.2651332579733</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -6190,15 +6190,15 @@
       </c>
       <c r="J12">
         <f>AQ$19/1000000</f>
-        <v>22.261075949939798</v>
+        <v>17.335091522183102</v>
       </c>
       <c r="K12">
         <f>AQ$20/1000000</f>
-        <v>25.571867530111398</v>
+        <v>19.918531786102999</v>
       </c>
       <c r="L12">
         <f>AQ$21/1000000</f>
-        <v>29.019062499520302</v>
+        <v>22.659406014650699</v>
       </c>
       <c r="BC12" s="9" t="s">
         <v>17</v>
@@ -6207,40 +6207,40 @@
         <v>15</v>
       </c>
       <c r="BE12" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BF12" s="9">
-        <v>28962835.2954343</v>
+        <v>22631971.818199102</v>
       </c>
       <c r="BG12" s="9">
-        <v>29008481.859950401</v>
+        <v>22654201.850908801</v>
       </c>
       <c r="BH12" s="9">
-        <v>29099774.988982599</v>
+        <v>22698661.916328099</v>
       </c>
       <c r="BI12" s="9">
-        <v>29099634.5380149</v>
+        <v>22698622.2257475</v>
       </c>
       <c r="BJ12" s="9">
-        <v>29099494.087047201</v>
+        <v>22698582.535166901</v>
       </c>
       <c r="BK12" s="9">
-        <v>29037602.0272622</v>
+        <v>22668437.4432959</v>
       </c>
       <c r="BL12" s="9">
-        <v>28975709.967477299</v>
+        <v>22638292.351424899</v>
       </c>
       <c r="BM12" s="9">
-        <v>28666249.668552499</v>
+        <v>22487566.8920701</v>
       </c>
       <c r="BN12" s="9">
-        <v>28356789.3696278</v>
+        <v>22336841.4327152</v>
       </c>
       <c r="BO12" s="9">
-        <v>28047329.0707031</v>
+        <v>22186115.973360401</v>
       </c>
       <c r="BP12" s="9">
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
@@ -6252,15 +6252,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>21.4266445013651</v>
+        <v>17.0790263195499</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>24.3903884707379</v>
+        <v>19.421369469557302</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>27.9182274699122</v>
+        <v>22.234451168756898</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -6270,15 +6270,15 @@
       </c>
       <c r="J13">
         <f>AR$19/1000000</f>
-        <v>22.252367989939803</v>
+        <v>17.330850478183098</v>
       </c>
       <c r="K13">
         <f>AR$20/1000000</f>
-        <v>25.510818176132897</v>
+        <v>19.8887972137159</v>
       </c>
       <c r="L13">
         <f>AR$21/1000000</f>
-        <v>28.958013145541798</v>
+        <v>22.6296714422636</v>
       </c>
       <c r="BC13" s="9" t="s">
         <v>18</v>
@@ -6287,40 +6287,40 @@
         <v>13</v>
       </c>
       <c r="BE13" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BF13" s="9">
-        <v>22062957.401262</v>
+        <v>17238565.146123599</v>
       </c>
       <c r="BG13" s="9">
-        <v>22101619.8889651</v>
+        <v>17257393.909588799</v>
       </c>
       <c r="BH13" s="9">
-        <v>22187536.528305199</v>
+        <v>17299235.606178299</v>
       </c>
       <c r="BI13" s="9">
-        <v>22224673.6870571</v>
+        <v>17317341.162020501</v>
       </c>
       <c r="BJ13" s="9">
-        <v>22269783.909939799</v>
+        <v>17339332.566183101</v>
       </c>
       <c r="BK13" s="9">
-        <v>22261075.949939799</v>
+        <v>17335091.522183102</v>
       </c>
       <c r="BL13" s="9">
-        <v>22252367.989939801</v>
+        <v>17330850.478183098</v>
       </c>
       <c r="BM13" s="9">
-        <v>22053782.575758599</v>
+        <v>17234128.359110001</v>
       </c>
       <c r="BN13" s="9">
-        <v>21748535.8058661</v>
+        <v>17085455.497174501</v>
       </c>
       <c r="BO13" s="9">
-        <v>21443289.035973601</v>
+        <v>16936782.635239001</v>
       </c>
       <c r="BP13" s="9">
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
@@ -6332,15 +6332,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>21.1549689011471</v>
+        <v>16.8797567698299</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>24.069133875134501</v>
+        <v>19.186215966080699</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>27.6616545501657</v>
+        <v>22.047309481384797</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -6350,15 +6350,15 @@
       </c>
       <c r="J14">
         <f>AS$19/1000000</f>
-        <v>22.0537825757586</v>
+        <v>17.234128359110002</v>
       </c>
       <c r="K14">
         <f>AS$20/1000000</f>
-        <v>25.205571406240399</v>
+        <v>19.740124351780398</v>
       </c>
       <c r="L14">
         <f>AS$21/1000000</f>
-        <v>28.6527663756493</v>
+        <v>22.480998580328098</v>
       </c>
       <c r="AI14" t="s">
         <v>17</v>
@@ -6368,51 +6368,51 @@
       </c>
       <c r="AK14">
         <f>BE10</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL14">
         <f t="shared" ref="AL14:AV16" si="6">BF10</f>
-        <v>22068399.876262002</v>
+        <v>17241215.650023598</v>
       </c>
       <c r="AM14">
         <f t="shared" si="6"/>
-        <v>22112880.182068601</v>
+        <v>17262877.710761201</v>
       </c>
       <c r="AN14">
         <f t="shared" si="6"/>
-        <v>22211725.306083001</v>
+        <v>17311015.623511601</v>
       </c>
       <c r="AO14">
         <f t="shared" si="6"/>
-        <v>22257938.094257101</v>
+        <v>17333542.9011405</v>
       </c>
       <c r="AP14">
         <f t="shared" si="6"/>
-        <v>22313323.7099398</v>
+        <v>17360540.758183099</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="6"/>
-        <v>22306792.739939801</v>
+        <v>17357359.9751831</v>
       </c>
       <c r="AR14">
         <f t="shared" si="6"/>
-        <v>22300261.769939799</v>
+        <v>17354179.1921831</v>
       </c>
       <c r="AS14">
         <f t="shared" si="6"/>
-        <v>22067265.868661799</v>
+        <v>17240696.670851901</v>
       </c>
       <c r="AT14">
         <f t="shared" si="6"/>
-        <v>21757805.569737099</v>
+        <v>17089971.211497098</v>
       </c>
       <c r="AU14">
         <f t="shared" si="6"/>
-        <v>21448345.270812299</v>
+        <v>16939245.752142198</v>
       </c>
       <c r="AV14">
         <f t="shared" si="6"/>
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
       <c r="BC14" s="9" t="s">
         <v>18</v>
@@ -6421,40 +6421,40 @@
         <v>14</v>
       </c>
       <c r="BE14" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BF14" s="9">
-        <v>25512129.0518318</v>
+        <v>19889387.5871353</v>
       </c>
       <c r="BG14" s="9">
-        <v>25554264.342154399</v>
+        <v>19909907.6173288</v>
       </c>
       <c r="BH14" s="9">
-        <v>25638534.922799598</v>
+        <v>19950947.677715901</v>
       </c>
       <c r="BI14" s="9">
-        <v>25635725.9034447</v>
+        <v>19949607.018103</v>
       </c>
       <c r="BJ14" s="9">
-        <v>25632916.884089898</v>
+        <v>19948266.358490098</v>
       </c>
       <c r="BK14" s="9">
-        <v>25571867.530111399</v>
+        <v>19918531.786102999</v>
       </c>
       <c r="BL14" s="9">
-        <v>25510818.176132899</v>
+        <v>19888797.2137159</v>
       </c>
       <c r="BM14" s="9">
-        <v>25205571.4062404</v>
+        <v>19740124.3517804</v>
       </c>
       <c r="BN14" s="9">
-        <v>24900324.636348002</v>
+        <v>19591451.4898449</v>
       </c>
       <c r="BO14" s="9">
-        <v>24595077.866455499</v>
+        <v>19442778.6279094</v>
       </c>
       <c r="BP14" s="9">
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
@@ -6466,15 +6466,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>20.821996041665301</v>
+        <v>16.6242684846261</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>23.687818035660101</v>
+        <v>18.8948437271203</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>27.345020386548299</v>
+        <v>21.803949058528801</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -6484,15 +6484,15 @@
       </c>
       <c r="J15">
         <f>AT$19/1000000</f>
-        <v>21.748535805866101</v>
+        <v>17.0854554971745</v>
       </c>
       <c r="K15">
         <f>AT$20/1000000</f>
-        <v>24.900324636348003</v>
+        <v>19.5914514898449</v>
       </c>
       <c r="L15">
         <f>AT$21/1000000</f>
-        <v>28.347519605756801</v>
+        <v>22.332325718392699</v>
       </c>
       <c r="AI15" t="s">
         <v>17</v>
@@ -6502,51 +6502,51 @@
       </c>
       <c r="AK15">
         <f t="shared" ref="AK15:AK16" si="7">BE11</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL15">
         <f t="shared" si="6"/>
-        <v>25515640.3260254</v>
+        <v>19891097.589651398</v>
       </c>
       <c r="AM15">
         <f t="shared" si="6"/>
-        <v>25561286.890541501</v>
+        <v>19913327.622361101</v>
       </c>
       <c r="AN15">
         <f t="shared" si="6"/>
-        <v>25652580.0195738</v>
+        <v>19957787.687780399</v>
       </c>
       <c r="AO15">
         <f t="shared" si="6"/>
-        <v>25652439.568606</v>
+        <v>19957747.9971998</v>
       </c>
       <c r="AP15">
         <f t="shared" si="6"/>
-        <v>25652299.117638301</v>
+        <v>19957708.3066191</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="6"/>
-        <v>25590407.057853401</v>
+        <v>19927563.2147482</v>
       </c>
       <c r="AR15">
         <f t="shared" si="6"/>
-        <v>25528514.9980684</v>
+        <v>19897418.122877199</v>
       </c>
       <c r="AS15">
         <f t="shared" si="6"/>
-        <v>25219054.6991437</v>
+        <v>19746692.663522299</v>
       </c>
       <c r="AT15">
         <f t="shared" si="6"/>
-        <v>24909594.4002189</v>
+        <v>19595967.2041675</v>
       </c>
       <c r="AU15">
         <f t="shared" si="6"/>
-        <v>24600134.101294201</v>
+        <v>19445241.744812701</v>
       </c>
       <c r="AV15">
         <f t="shared" si="6"/>
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
       <c r="BC15" s="9" t="s">
         <v>18</v>
@@ -6555,40 +6555,40 @@
         <v>15</v>
       </c>
       <c r="BE15" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BF15" s="9">
-        <v>28959324.0212407</v>
+        <v>22630261.815683</v>
       </c>
       <c r="BG15" s="9">
-        <v>29001459.311563302</v>
+        <v>22650781.8458765</v>
       </c>
       <c r="BH15" s="9">
-        <v>29085729.892208401</v>
+        <v>22691821.906263601</v>
       </c>
       <c r="BI15" s="9">
-        <v>29082920.872853599</v>
+        <v>22690481.2466507</v>
       </c>
       <c r="BJ15" s="9">
-        <v>29080111.853498802</v>
+        <v>22689140.587037802</v>
       </c>
       <c r="BK15" s="9">
-        <v>29019062.499520302</v>
+        <v>22659406.014650699</v>
       </c>
       <c r="BL15" s="9">
-        <v>28958013.145541798</v>
+        <v>22629671.442263599</v>
       </c>
       <c r="BM15" s="9">
-        <v>28652766.375649299</v>
+        <v>22480998.580328099</v>
       </c>
       <c r="BN15" s="9">
-        <v>28347519.605756801</v>
+        <v>22332325.7183927</v>
       </c>
       <c r="BO15" s="9">
-        <v>28042272.835864399</v>
+        <v>22183652.8564572</v>
       </c>
       <c r="BP15" s="9">
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
@@ -6600,15 +6600,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>20.413285117667499</v>
+        <v>16.312561463938298</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>23.230764131669599</v>
+        <v>18.547252752675998</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>26.952648158414799</v>
+        <v>21.504369900189001</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -6618,15 +6618,15 @@
       </c>
       <c r="J16">
         <f>AU$19/1000000</f>
-        <v>21.443289035973603</v>
+        <v>16.936782635239002</v>
       </c>
       <c r="K16">
         <f>AU$20/1000000</f>
-        <v>24.595077866455497</v>
+        <v>19.442778627909398</v>
       </c>
       <c r="L16">
         <f>AU$21/1000000</f>
-        <v>28.042272835864399</v>
+        <v>22.183652856457201</v>
       </c>
       <c r="AI16" t="s">
         <v>17</v>
@@ -6636,51 +6636,51 @@
       </c>
       <c r="AK16">
         <f t="shared" si="7"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL16">
         <f t="shared" si="6"/>
-        <v>28962835.2954343</v>
+        <v>22631971.818199102</v>
       </c>
       <c r="AM16">
         <f t="shared" si="6"/>
-        <v>29008481.859950401</v>
+        <v>22654201.850908801</v>
       </c>
       <c r="AN16">
         <f t="shared" si="6"/>
-        <v>29099774.988982599</v>
+        <v>22698661.916328099</v>
       </c>
       <c r="AO16">
         <f t="shared" si="6"/>
-        <v>29099634.5380149</v>
+        <v>22698622.2257475</v>
       </c>
       <c r="AP16">
         <f t="shared" si="6"/>
-        <v>29099494.087047201</v>
+        <v>22698582.535166901</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="6"/>
-        <v>29037602.0272622</v>
+        <v>22668437.4432959</v>
       </c>
       <c r="AR16">
         <f t="shared" si="6"/>
-        <v>28975709.967477299</v>
+        <v>22638292.351424899</v>
       </c>
       <c r="AS16">
         <f t="shared" si="6"/>
-        <v>28666249.668552499</v>
+        <v>22487566.8920701</v>
       </c>
       <c r="AT16">
         <f t="shared" si="6"/>
-        <v>28356789.3696278</v>
+        <v>22336841.4327152</v>
       </c>
       <c r="AU16">
         <f t="shared" si="6"/>
-        <v>28047329.0707031</v>
+        <v>22186115.973360401</v>
       </c>
       <c r="AV16">
         <f t="shared" si="6"/>
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -6692,15 +6692,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>19.822857763708701</v>
+        <v>15.864304308274301</v>
       </c>
       <c r="D17">
         <f>Y74</f>
-        <v>22.582325201719701</v>
+        <v>18.055934852504102</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>26.381827239493298</v>
+        <v>21.070666179342499</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -6710,15 +6710,15 @@
       </c>
       <c r="J17">
         <f>AV$19/1000000</f>
-        <v>21.0769929121027</v>
+        <v>16.758375200916401</v>
       </c>
       <c r="K17">
         <f>AV$20/1000000</f>
-        <v>24.228781742584502</v>
+        <v>19.2643711935869</v>
       </c>
       <c r="L17">
         <f>AV$21/1000000</f>
-        <v>27.6759767119934</v>
+        <v>22.0052454221346</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
@@ -6730,51 +6730,51 @@
       </c>
       <c r="AK19">
         <f>BE13</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL19">
         <f t="shared" ref="AL19:AV21" si="8">BF13</f>
-        <v>22062957.401262</v>
+        <v>17238565.146123599</v>
       </c>
       <c r="AM19">
         <f t="shared" si="8"/>
-        <v>22101619.8889651</v>
+        <v>17257393.909588799</v>
       </c>
       <c r="AN19">
         <f t="shared" si="8"/>
-        <v>22187536.528305199</v>
+        <v>17299235.606178299</v>
       </c>
       <c r="AO19">
         <f t="shared" si="8"/>
-        <v>22224673.6870571</v>
+        <v>17317341.162020501</v>
       </c>
       <c r="AP19">
         <f t="shared" si="8"/>
-        <v>22269783.909939799</v>
+        <v>17339332.566183101</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="8"/>
-        <v>22261075.949939799</v>
+        <v>17335091.522183102</v>
       </c>
       <c r="AR19">
         <f t="shared" si="8"/>
-        <v>22252367.989939801</v>
+        <v>17330850.478183098</v>
       </c>
       <c r="AS19">
         <f t="shared" si="8"/>
-        <v>22053782.575758599</v>
+        <v>17234128.359110001</v>
       </c>
       <c r="AT19">
         <f t="shared" si="8"/>
-        <v>21748535.8058661</v>
+        <v>17085455.497174501</v>
       </c>
       <c r="AU19">
         <f t="shared" si="8"/>
-        <v>21443289.035973601</v>
+        <v>16936782.635239001</v>
       </c>
       <c r="AV19">
         <f t="shared" si="8"/>
-        <v>21076992.912102699</v>
+        <v>16758375.2009164</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
@@ -6786,51 +6786,51 @@
       </c>
       <c r="AK20">
         <f t="shared" ref="AK20:AK21" si="9">BE14</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL20">
         <f t="shared" si="8"/>
-        <v>25512129.0518318</v>
+        <v>19889387.5871353</v>
       </c>
       <c r="AM20">
         <f t="shared" si="8"/>
-        <v>25554264.342154399</v>
+        <v>19909907.6173288</v>
       </c>
       <c r="AN20">
         <f t="shared" si="8"/>
-        <v>25638534.922799598</v>
+        <v>19950947.677715901</v>
       </c>
       <c r="AO20">
         <f t="shared" si="8"/>
-        <v>25635725.9034447</v>
+        <v>19949607.018103</v>
       </c>
       <c r="AP20">
         <f t="shared" si="8"/>
-        <v>25632916.884089898</v>
+        <v>19948266.358490098</v>
       </c>
       <c r="AQ20">
         <f t="shared" si="8"/>
-        <v>25571867.530111399</v>
+        <v>19918531.786102999</v>
       </c>
       <c r="AR20">
         <f t="shared" si="8"/>
-        <v>25510818.176132899</v>
+        <v>19888797.2137159</v>
       </c>
       <c r="AS20">
         <f t="shared" si="8"/>
-        <v>25205571.4062404</v>
+        <v>19740124.3517804</v>
       </c>
       <c r="AT20">
         <f t="shared" si="8"/>
-        <v>24900324.636348002</v>
+        <v>19591451.4898449</v>
       </c>
       <c r="AU20">
         <f t="shared" si="8"/>
-        <v>24595077.866455499</v>
+        <v>19442778.6279094</v>
       </c>
       <c r="AV20">
         <f t="shared" si="8"/>
-        <v>24228781.7425845</v>
+        <v>19264371.193586901</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
@@ -6842,51 +6842,51 @@
       </c>
       <c r="AK21">
         <f t="shared" si="9"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL21">
         <f t="shared" si="8"/>
-        <v>28959324.0212407</v>
+        <v>22630261.815683</v>
       </c>
       <c r="AM21">
         <f t="shared" si="8"/>
-        <v>29001459.311563302</v>
+        <v>22650781.8458765</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
-        <v>29085729.892208401</v>
+        <v>22691821.906263601</v>
       </c>
       <c r="AO21">
         <f t="shared" si="8"/>
-        <v>29082920.872853599</v>
+        <v>22690481.2466507</v>
       </c>
       <c r="AP21">
         <f t="shared" si="8"/>
-        <v>29080111.853498802</v>
+        <v>22689140.587037802</v>
       </c>
       <c r="AQ21">
         <f t="shared" si="8"/>
-        <v>29019062.499520302</v>
+        <v>22659406.014650699</v>
       </c>
       <c r="AR21">
         <f t="shared" si="8"/>
-        <v>28958013.145541798</v>
+        <v>22629671.442263599</v>
       </c>
       <c r="AS21">
         <f t="shared" si="8"/>
-        <v>28652766.375649299</v>
+        <v>22480998.580328099</v>
       </c>
       <c r="AT21">
         <f t="shared" si="8"/>
-        <v>28347519.605756801</v>
+        <v>22332325.7183927</v>
       </c>
       <c r="AU21">
         <f t="shared" si="8"/>
-        <v>28042272.835864399</v>
+        <v>22183652.8564572</v>
       </c>
       <c r="AV21">
         <f t="shared" si="8"/>
-        <v>27675976.7119934</v>
+        <v>22005245.422134601</v>
       </c>
     </row>
     <row r="40" spans="22:76" x14ac:dyDescent="0.25">
@@ -7364,15 +7364,15 @@
       </c>
       <c r="C63">
         <f>$AK78/1000000</f>
-        <v>22.0267892676044</v>
+        <v>17.220951141591499</v>
       </c>
       <c r="D63">
         <f>$AK79/1000000</f>
-        <v>25.469993761509301</v>
+        <v>19.868867556941698</v>
       </c>
       <c r="E63">
         <f>$AK80/1000000</f>
-        <v>28.917188730918099</v>
+        <v>22.609741785489398</v>
       </c>
       <c r="H63" t="s">
         <v>0</v>
@@ -7382,15 +7382,15 @@
       </c>
       <c r="J63">
         <f>$AK83/1000000</f>
-        <v>22.0267892676044</v>
+        <v>17.220951141591499</v>
       </c>
       <c r="K63">
         <f>$AK84/1000000</f>
-        <v>25.469993761509301</v>
+        <v>19.868867556941698</v>
       </c>
       <c r="L63">
         <f>$AK85/1000000</f>
-        <v>28.917188730918099</v>
+        <v>22.609741785489398</v>
       </c>
       <c r="V63" t="s">
         <v>0</v>
@@ -7400,15 +7400,15 @@
       </c>
       <c r="X63">
         <f>J63</f>
-        <v>22.0267892676044</v>
+        <v>17.220951141591499</v>
       </c>
       <c r="Y63">
         <f t="shared" ref="Y63:Z74" si="10">K63</f>
-        <v>25.469993761509301</v>
+        <v>19.868867556941698</v>
       </c>
       <c r="Z63">
         <f t="shared" si="10"/>
-        <v>28.917188730918099</v>
+        <v>22.609741785489398</v>
       </c>
       <c r="BK63" s="8"/>
       <c r="BL63" s="8"/>
@@ -7434,15 +7434,15 @@
       </c>
       <c r="C64">
         <f>$AL78/1000000</f>
-        <v>22.054182806998902</v>
+        <v>17.226381327416</v>
       </c>
       <c r="D64">
         <f>$AL79/1000000</f>
-        <v>25.415977529877598</v>
+        <v>19.803065998365998</v>
       </c>
       <c r="E64">
         <f>$AL80/1000000</f>
-        <v>28.893936718333798</v>
+        <v>22.5733490807701</v>
       </c>
       <c r="H64" t="s">
         <v>1</v>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="J64">
         <f>$AL83/1000000</f>
-        <v>22.062118046998901</v>
+        <v>17.242152839816001</v>
       </c>
       <c r="K64">
         <f>$AL84/1000000</f>
-        <v>25.430626613748601</v>
+        <v>19.8217487573338</v>
       </c>
       <c r="L64">
         <f>$AL85/1000000</f>
-        <v>28.908585802204698</v>
+        <v>22.592031839737899</v>
       </c>
       <c r="V64" t="s">
         <v>1</v>
@@ -7470,15 +7470,15 @@
       </c>
       <c r="X64">
         <f t="shared" ref="X64:X74" si="11">J64</f>
-        <v>22.062118046998901</v>
+        <v>17.242152839816001</v>
       </c>
       <c r="Y64">
         <f t="shared" si="10"/>
-        <v>25.430626613748601</v>
+        <v>19.8217487573338</v>
       </c>
       <c r="Z64">
         <f t="shared" si="10"/>
-        <v>28.908585802204698</v>
+        <v>22.592031839737899</v>
       </c>
       <c r="BK64" s="8"/>
       <c r="BL64" s="8"/>
@@ -7504,15 +7504,15 @@
       </c>
       <c r="C65">
         <f>$AM78/1000000</f>
-        <v>22.065870850501899</v>
+        <v>17.2121012479382</v>
       </c>
       <c r="D65">
         <f>$AM79/1000000</f>
-        <v>25.364188973704699</v>
+        <v>19.734412651992599</v>
       </c>
       <c r="E65">
         <f>$AM80/1000000</f>
-        <v>28.857943794199301</v>
+        <v>22.5187973881904</v>
       </c>
       <c r="H65" t="s">
         <v>2</v>
@@ -7522,15 +7522,15 @@
       </c>
       <c r="J65">
         <f>$AM83/1000000</f>
-        <v>22.0802512311915</v>
+        <v>17.242913099248497</v>
       </c>
       <c r="K65">
         <f>$AM84/1000000</f>
-        <v>25.391581226607901</v>
+        <v>19.7700766519926</v>
       </c>
       <c r="L65">
         <f>$AM85/1000000</f>
-        <v>28.885336047102601</v>
+        <v>22.554461388190401</v>
       </c>
       <c r="V65" t="s">
         <v>2</v>
@@ -7540,15 +7540,15 @@
       </c>
       <c r="X65">
         <f t="shared" si="11"/>
-        <v>22.0802512311915</v>
+        <v>17.242913099248497</v>
       </c>
       <c r="Y65">
         <f t="shared" si="10"/>
-        <v>25.391581226607901</v>
+        <v>19.7700766519926</v>
       </c>
       <c r="Z65">
         <f t="shared" si="10"/>
-        <v>28.885336047102601</v>
+        <v>22.554461388190401</v>
       </c>
       <c r="BK65" s="8"/>
       <c r="BL65" s="8"/>
@@ -7574,15 +7574,15 @@
       </c>
       <c r="C66">
         <f>$AN78/1000000</f>
-        <v>22.102906654945702</v>
+        <v>17.1902437451057</v>
       </c>
       <c r="D66">
         <f>$AN79/1000000</f>
-        <v>25.2834828394233</v>
+        <v>19.617524174471402</v>
       </c>
       <c r="E66">
         <f>$AN80/1000000</f>
-        <v>28.808828923994898</v>
+        <v>22.430112218256699</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -7592,15 +7592,15 @@
       </c>
       <c r="J66">
         <f>$AN83/1000000</f>
-        <v>22.125044752723401</v>
+        <v>17.2486177877724</v>
       </c>
       <c r="K66">
         <f>$AN84/1000000</f>
-        <v>25.3306436858749</v>
+        <v>19.682046102729501</v>
       </c>
       <c r="L66">
         <f>$AN85/1000000</f>
-        <v>28.855989770446502</v>
+        <v>22.494634146514798</v>
       </c>
       <c r="V66" t="s">
         <v>3</v>
@@ -7610,15 +7610,15 @@
       </c>
       <c r="X66">
         <f t="shared" si="11"/>
-        <v>22.125044752723401</v>
+        <v>17.2486177877724</v>
       </c>
       <c r="Y66">
         <f t="shared" si="10"/>
-        <v>25.3306436858749</v>
+        <v>19.682046102729501</v>
       </c>
       <c r="Z66">
         <f t="shared" si="10"/>
-        <v>28.855989770446502</v>
+        <v>22.494634146514798</v>
       </c>
       <c r="BK66" s="8"/>
       <c r="BL66" s="8"/>
@@ -7644,15 +7644,15 @@
       </c>
       <c r="C67">
         <f>$AO78/1000000</f>
-        <v>21.9089741515082</v>
+        <v>17.015004469689501</v>
       </c>
       <c r="D67">
         <f>$AO79/1000000</f>
-        <v>24.991596348136802</v>
+        <v>19.387398863784902</v>
       </c>
       <c r="E67">
         <f>$AO80/1000000</f>
-        <v>28.5052525548383</v>
+        <v>22.190631372056497</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -7662,15 +7662,15 @@
       </c>
       <c r="J67">
         <f>$AO83/1000000</f>
-        <v>21.9723253035082</v>
+        <v>17.116889998463702</v>
       </c>
       <c r="K67">
         <f>$AO84/1000000</f>
-        <v>25.082779225556102</v>
+        <v>19.4892843925591</v>
       </c>
       <c r="L67">
         <f>$AO85/1000000</f>
-        <v>28.596435432257699</v>
+        <v>22.292516900830702</v>
       </c>
       <c r="V67" t="s">
         <v>4</v>
@@ -7680,15 +7680,15 @@
       </c>
       <c r="X67">
         <f t="shared" si="11"/>
-        <v>21.9723253035082</v>
+        <v>17.116889998463702</v>
       </c>
       <c r="Y67">
         <f t="shared" si="10"/>
-        <v>25.082779225556102</v>
+        <v>19.4892843925591</v>
       </c>
       <c r="Z67">
         <f t="shared" si="10"/>
-        <v>28.596435432257699</v>
+        <v>22.292516900830702</v>
       </c>
     </row>
     <row r="68" spans="1:76" x14ac:dyDescent="0.25">
@@ -7700,15 +7700,15 @@
       </c>
       <c r="C68">
         <f>$AP78/1000000</f>
-        <v>21.7272470847251</v>
+        <v>17.0116435319541</v>
       </c>
       <c r="D68">
         <f>$AP79/1000000</f>
-        <v>24.739193356205099</v>
+        <v>19.368340263463999</v>
       </c>
       <c r="E68">
         <f>$AP80/1000000</f>
-        <v>28.2411596850366</v>
+        <v>22.162217236221899</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="J68">
         <f>$AP83/1000000</f>
-        <v>21.8272251647251</v>
+        <v>17.142992893502498</v>
       </c>
       <c r="K68">
         <f>$AP84/1000000</f>
-        <v>24.864527389753498</v>
+        <v>19.499689625012401</v>
       </c>
       <c r="L68">
         <f>$AP85/1000000</f>
-        <v>28.366493718584998</v>
+        <v>22.293566597770301</v>
       </c>
       <c r="V68" t="s">
         <v>5</v>
@@ -7736,15 +7736,15 @@
       </c>
       <c r="X68">
         <f t="shared" si="11"/>
-        <v>21.8272251647251</v>
+        <v>17.142992893502498</v>
       </c>
       <c r="Y68">
         <f t="shared" si="10"/>
-        <v>24.864527389753498</v>
+        <v>19.499689625012401</v>
       </c>
       <c r="Z68">
         <f t="shared" si="10"/>
-        <v>28.366493718584998</v>
+        <v>22.293566597770301</v>
       </c>
     </row>
     <row r="69" spans="1:76" x14ac:dyDescent="0.25">
@@ -7756,15 +7756,15 @@
       </c>
       <c r="C69">
         <f>$AQ78/1000000</f>
-        <v>21.4886179530451</v>
+        <v>16.961759217881003</v>
       </c>
       <c r="D69">
         <f>$AQ79/1000000</f>
-        <v>24.4676844885253</v>
+        <v>19.311279158639699</v>
       </c>
       <c r="E69">
         <f>$AQ80/1000000</f>
-        <v>27.982587152528101</v>
+        <v>22.1147584946184</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -7774,15 +7774,15 @@
       </c>
       <c r="J69">
         <f>$AQ83/1000000</f>
-        <v>21.626934833045098</v>
+        <v>17.1121339812359</v>
       </c>
       <c r="K69">
         <f>$AQ84/1000000</f>
-        <v>24.6208939646543</v>
+        <v>19.4616539219945</v>
       </c>
       <c r="L69">
         <f>$AQ85/1000000</f>
-        <v>28.1357966286572</v>
+        <v>22.2651332579733</v>
       </c>
       <c r="V69" t="s">
         <v>6</v>
@@ -7792,15 +7792,15 @@
       </c>
       <c r="X69">
         <f t="shared" si="11"/>
-        <v>21.626934833045098</v>
+        <v>17.1121339812359</v>
       </c>
       <c r="Y69">
         <f t="shared" si="10"/>
-        <v>24.6208939646543</v>
+        <v>19.4616539219945</v>
       </c>
       <c r="Z69">
         <f t="shared" si="10"/>
-        <v>28.1357966286572</v>
+        <v>22.2651332579733</v>
       </c>
     </row>
     <row r="70" spans="1:76" x14ac:dyDescent="0.25">
@@ -7812,15 +7812,15 @@
       </c>
       <c r="C70">
         <f>$AR78/1000000</f>
-        <v>21.249825120628799</v>
+        <v>16.911874903808002</v>
       </c>
       <c r="D70">
         <f>$AR79/1000000</f>
-        <v>24.2123330746089</v>
+        <v>19.2542180538154</v>
       </c>
       <c r="E70">
         <f>$AR80/1000000</f>
-        <v>27.740172073783199</v>
+        <v>22.067299753015</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
@@ -7830,15 +7830,15 @@
       </c>
       <c r="J70">
         <f>$AR83/1000000</f>
-        <v>21.4266445013651</v>
+        <v>17.0790263195499</v>
       </c>
       <c r="K70">
         <f>$AR84/1000000</f>
-        <v>24.3903884707379</v>
+        <v>19.421369469557302</v>
       </c>
       <c r="L70">
         <f>$AR85/1000000</f>
-        <v>27.9182274699122</v>
+        <v>22.234451168756898</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -7848,15 +7848,15 @@
       </c>
       <c r="X70">
         <f t="shared" si="11"/>
-        <v>21.4266445013651</v>
+        <v>17.0790263195499</v>
       </c>
       <c r="Y70">
         <f t="shared" si="10"/>
-        <v>24.3903884707379</v>
+        <v>19.421369469557302</v>
       </c>
       <c r="Z70">
         <f t="shared" si="10"/>
-        <v>27.9182274699122</v>
+        <v>22.234451168756898</v>
       </c>
     </row>
     <row r="71" spans="1:76" x14ac:dyDescent="0.25">
@@ -7868,15 +7868,15 @@
       </c>
       <c r="C71">
         <f>$AS78/1000000</f>
-        <v>20.898126743727698</v>
+        <v>16.662453333442798</v>
       </c>
       <c r="D71">
         <f>$AS79/1000000</f>
-        <v>23.812291717715098</v>
+        <v>18.968912529693601</v>
       </c>
       <c r="E71">
         <f>$AS80/1000000</f>
-        <v>27.4048123927464</v>
+        <v>21.830006044997699</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
@@ -7886,15 +7886,15 @@
       </c>
       <c r="J71">
         <f>$AS83/1000000</f>
-        <v>21.1549689011471</v>
+        <v>16.8797567698299</v>
       </c>
       <c r="K71">
         <f>$AS84/1000000</f>
-        <v>24.069133875134501</v>
+        <v>19.186215966080699</v>
       </c>
       <c r="L71">
         <f>$AS85/1000000</f>
-        <v>27.6616545501657</v>
+        <v>22.047309481384797</v>
       </c>
       <c r="V71" t="s">
         <v>8</v>
@@ -7904,15 +7904,15 @@
       </c>
       <c r="X71">
         <f t="shared" si="11"/>
-        <v>21.1549689011471</v>
+        <v>16.8797567698299</v>
       </c>
       <c r="Y71">
         <f t="shared" si="10"/>
-        <v>24.069133875134501</v>
+        <v>19.186215966080699</v>
       </c>
       <c r="Z71">
         <f t="shared" si="10"/>
-        <v>27.6616545501657</v>
+        <v>22.047309481384797</v>
       </c>
     </row>
     <row r="72" spans="1:76" x14ac:dyDescent="0.25">
@@ -7924,15 +7924,15 @@
       </c>
       <c r="C72">
         <f>$AT78/1000000</f>
-        <v>20.562105187471801</v>
+        <v>16.413031763077701</v>
       </c>
       <c r="D72">
         <f>$AT79/1000000</f>
-        <v>23.4279271814666</v>
+        <v>18.683607005571901</v>
       </c>
       <c r="E72">
         <f>$AT80/1000000</f>
-        <v>27.085129532354799</v>
+        <v>21.592712336980398</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -7942,15 +7942,15 @@
       </c>
       <c r="J72">
         <f>$AT83/1000000</f>
-        <v>20.821996041665301</v>
+        <v>16.6242684846261</v>
       </c>
       <c r="K72">
         <f>$AT84/1000000</f>
-        <v>23.687818035660101</v>
+        <v>18.8948437271203</v>
       </c>
       <c r="L72">
         <f>$AT85/1000000</f>
-        <v>27.345020386548299</v>
+        <v>21.803949058528801</v>
       </c>
       <c r="V72" t="s">
         <v>9</v>
@@ -7960,15 +7960,15 @@
       </c>
       <c r="X72">
         <f t="shared" si="11"/>
-        <v>20.821996041665301</v>
+        <v>16.6242684846261</v>
       </c>
       <c r="Y72">
         <f t="shared" si="10"/>
-        <v>23.687818035660101</v>
+        <v>18.8948437271203</v>
       </c>
       <c r="Z72">
         <f t="shared" si="10"/>
-        <v>27.345020386548299</v>
+        <v>21.803949058528801</v>
       </c>
     </row>
     <row r="73" spans="1:76" x14ac:dyDescent="0.25">
@@ -7980,15 +7980,15 @@
       </c>
       <c r="C73">
         <f>$AU78/1000000</f>
-        <v>20.226083631215801</v>
+        <v>16.1636101927125</v>
       </c>
       <c r="D73">
         <f>$AU79/1000000</f>
-        <v>23.043562645218</v>
+        <v>18.398301481450201</v>
       </c>
       <c r="E73">
         <f>$AU80/1000000</f>
-        <v>26.7654466719632</v>
+        <v>21.3554186289632</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -7998,15 +7998,15 @@
       </c>
       <c r="J73">
         <f>$AU83/1000000</f>
-        <v>20.413285117667499</v>
+        <v>16.312561463938298</v>
       </c>
       <c r="K73">
         <f>$AU84/1000000</f>
-        <v>23.230764131669599</v>
+        <v>18.547252752675998</v>
       </c>
       <c r="L73">
         <f>$AU85/1000000</f>
-        <v>26.952648158414799</v>
+        <v>21.504369900189001</v>
       </c>
       <c r="V73" t="s">
         <v>10</v>
@@ -8016,15 +8016,15 @@
       </c>
       <c r="X73">
         <f t="shared" si="11"/>
-        <v>20.413285117667499</v>
+        <v>16.312561463938298</v>
       </c>
       <c r="Y73">
         <f t="shared" si="10"/>
-        <v>23.230764131669599</v>
+        <v>18.547252752675998</v>
       </c>
       <c r="Z73">
         <f t="shared" si="10"/>
-        <v>26.952648158414799</v>
+        <v>21.504369900189001</v>
       </c>
     </row>
     <row r="74" spans="1:76" x14ac:dyDescent="0.25">
@@ -8036,15 +8036,15 @@
       </c>
       <c r="C74">
         <f>$AV78/1000000</f>
-        <v>19.822857763708701</v>
+        <v>15.864304308274301</v>
       </c>
       <c r="D74">
         <f>$AV79/1000000</f>
-        <v>22.582325201719701</v>
+        <v>18.055934852504102</v>
       </c>
       <c r="E74">
         <f>$AV80/1000000</f>
-        <v>26.381827239493298</v>
+        <v>21.070666179342499</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -8054,15 +8054,15 @@
       </c>
       <c r="J74">
         <f>$AV83/1000000</f>
-        <v>19.822857763708701</v>
+        <v>15.864304308274301</v>
       </c>
       <c r="K74">
         <f>$AV84/1000000</f>
-        <v>22.582325201719701</v>
+        <v>18.055934852504102</v>
       </c>
       <c r="L74">
         <f>$AV85/1000000</f>
-        <v>26.381827239493298</v>
+        <v>21.070666179342499</v>
       </c>
       <c r="V74" t="s">
         <v>11</v>
@@ -8072,15 +8072,15 @@
       </c>
       <c r="X74">
         <f t="shared" si="11"/>
-        <v>19.822857763708701</v>
+        <v>15.864304308274301</v>
       </c>
       <c r="Y74">
         <f t="shared" si="10"/>
-        <v>22.582325201719701</v>
+        <v>18.055934852504102</v>
       </c>
       <c r="Z74">
         <f t="shared" si="10"/>
-        <v>26.381827239493298</v>
+        <v>21.070666179342499</v>
       </c>
     </row>
     <row r="75" spans="1:76" x14ac:dyDescent="0.25">
@@ -8201,40 +8201,40 @@
         <v>13</v>
       </c>
       <c r="BH77" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BI77" s="9">
-        <v>22054182.806998901</v>
+        <v>17226381.327415999</v>
       </c>
       <c r="BJ77" s="9">
-        <v>22065870.850501899</v>
+        <v>17212101.247938201</v>
       </c>
       <c r="BK77" s="9">
-        <v>22102906.654945701</v>
+        <v>17190243.745105699</v>
       </c>
       <c r="BL77" s="9">
-        <v>21908974.151508201</v>
+        <v>17015004.4696895</v>
       </c>
       <c r="BM77" s="9">
-        <v>21727247.084725101</v>
+        <v>17011643.531954098</v>
       </c>
       <c r="BN77" s="9">
-        <v>21488617.9530451</v>
+        <v>16961759.217881002</v>
       </c>
       <c r="BO77" s="9">
-        <v>21249825.1206288</v>
+        <v>16911874.903808001</v>
       </c>
       <c r="BP77" s="9">
-        <v>20898126.743727699</v>
+        <v>16662453.3334428</v>
       </c>
       <c r="BQ77" s="9">
-        <v>20562105.1874718</v>
+        <v>16413031.763077701</v>
       </c>
       <c r="BR77" s="9">
-        <v>20226083.6312158</v>
+        <v>16163610.192712501</v>
       </c>
       <c r="BS77" s="9">
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
     </row>
     <row r="78" spans="1:76" x14ac:dyDescent="0.25">
@@ -8246,51 +8246,51 @@
       </c>
       <c r="AK78">
         <f>BH77</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL78">
         <f t="shared" ref="AL78:AV80" si="12">BI77</f>
-        <v>22054182.806998901</v>
+        <v>17226381.327415999</v>
       </c>
       <c r="AM78">
         <f t="shared" si="12"/>
-        <v>22065870.850501899</v>
+        <v>17212101.247938201</v>
       </c>
       <c r="AN78">
         <f t="shared" si="12"/>
-        <v>22102906.654945701</v>
+        <v>17190243.745105699</v>
       </c>
       <c r="AO78">
         <f t="shared" si="12"/>
-        <v>21908974.151508201</v>
+        <v>17015004.4696895</v>
       </c>
       <c r="AP78">
         <f t="shared" si="12"/>
-        <v>21727247.084725101</v>
+        <v>17011643.531954098</v>
       </c>
       <c r="AQ78">
         <f t="shared" si="12"/>
-        <v>21488617.9530451</v>
+        <v>16961759.217881002</v>
       </c>
       <c r="AR78">
         <f t="shared" si="12"/>
-        <v>21249825.1206288</v>
+        <v>16911874.903808001</v>
       </c>
       <c r="AS78">
         <f t="shared" si="12"/>
-        <v>20898126.743727699</v>
+        <v>16662453.3334428</v>
       </c>
       <c r="AT78">
         <f t="shared" si="12"/>
-        <v>20562105.1874718</v>
+        <v>16413031.763077701</v>
       </c>
       <c r="AU78">
         <f t="shared" si="12"/>
-        <v>20226083.6312158</v>
+        <v>16163610.192712501</v>
       </c>
       <c r="AV78">
         <f t="shared" si="12"/>
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
       <c r="BF78" s="9" t="s">
         <v>12</v>
@@ -8299,40 +8299,40 @@
         <v>14</v>
       </c>
       <c r="BH78" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BI78" s="9">
-        <v>25415977.529877599</v>
+        <v>19803065.998365998</v>
       </c>
       <c r="BJ78" s="9">
-        <v>25364188.973704699</v>
+        <v>19734412.6519926</v>
       </c>
       <c r="BK78" s="9">
-        <v>25283482.839423299</v>
+        <v>19617524.174471401</v>
       </c>
       <c r="BL78" s="9">
-        <v>24991596.348136801</v>
+        <v>19387398.863784902</v>
       </c>
       <c r="BM78" s="9">
-        <v>24739193.356205098</v>
+        <v>19368340.263464</v>
       </c>
       <c r="BN78" s="9">
-        <v>24467684.488525301</v>
+        <v>19311279.158639699</v>
       </c>
       <c r="BO78" s="9">
-        <v>24212333.0746089</v>
+        <v>19254218.053815398</v>
       </c>
       <c r="BP78" s="9">
-        <v>23812291.717715099</v>
+        <v>18968912.5296936</v>
       </c>
       <c r="BQ78" s="9">
-        <v>23427927.181466602</v>
+        <v>18683607.005571902</v>
       </c>
       <c r="BR78" s="9">
-        <v>23043562.645218</v>
+        <v>18398301.4814502</v>
       </c>
       <c r="BS78" s="9">
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
     </row>
     <row r="79" spans="1:76" x14ac:dyDescent="0.25">
@@ -8344,51 +8344,51 @@
       </c>
       <c r="AK79">
         <f t="shared" ref="AK79:AK80" si="13">BH78</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL79">
         <f t="shared" si="12"/>
-        <v>25415977.529877599</v>
+        <v>19803065.998365998</v>
       </c>
       <c r="AM79">
         <f t="shared" si="12"/>
-        <v>25364188.973704699</v>
+        <v>19734412.6519926</v>
       </c>
       <c r="AN79">
         <f t="shared" si="12"/>
-        <v>25283482.839423299</v>
+        <v>19617524.174471401</v>
       </c>
       <c r="AO79">
         <f t="shared" si="12"/>
-        <v>24991596.348136801</v>
+        <v>19387398.863784902</v>
       </c>
       <c r="AP79">
         <f t="shared" si="12"/>
-        <v>24739193.356205098</v>
+        <v>19368340.263464</v>
       </c>
       <c r="AQ79">
         <f t="shared" si="12"/>
-        <v>24467684.488525301</v>
+        <v>19311279.158639699</v>
       </c>
       <c r="AR79">
         <f t="shared" si="12"/>
-        <v>24212333.0746089</v>
+        <v>19254218.053815398</v>
       </c>
       <c r="AS79">
         <f t="shared" si="12"/>
-        <v>23812291.717715099</v>
+        <v>18968912.5296936</v>
       </c>
       <c r="AT79">
         <f t="shared" si="12"/>
-        <v>23427927.181466602</v>
+        <v>18683607.005571902</v>
       </c>
       <c r="AU79">
         <f t="shared" si="12"/>
-        <v>23043562.645218</v>
+        <v>18398301.4814502</v>
       </c>
       <c r="AV79">
         <f t="shared" si="12"/>
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
       <c r="BF79" s="9" t="s">
         <v>12</v>
@@ -8397,40 +8397,40 @@
         <v>15</v>
       </c>
       <c r="BH79" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BI79" s="9">
-        <v>28893936.718333799</v>
+        <v>22573349.080770101</v>
       </c>
       <c r="BJ79" s="9">
-        <v>28857943.794199299</v>
+        <v>22518797.3881904</v>
       </c>
       <c r="BK79" s="9">
-        <v>28808828.923994899</v>
+        <v>22430112.218256701</v>
       </c>
       <c r="BL79" s="9">
-        <v>28505252.5548383</v>
+        <v>22190631.372056499</v>
       </c>
       <c r="BM79" s="9">
-        <v>28241159.6850366</v>
+        <v>22162217.236221898</v>
       </c>
       <c r="BN79" s="9">
-        <v>27982587.1525281</v>
+        <v>22114758.494618401</v>
       </c>
       <c r="BO79" s="9">
-        <v>27740172.0737832</v>
+        <v>22067299.753015</v>
       </c>
       <c r="BP79" s="9">
-        <v>27404812.3927464</v>
+        <v>21830006.0449977</v>
       </c>
       <c r="BQ79" s="9">
-        <v>27085129.532354798</v>
+        <v>21592712.336980399</v>
       </c>
       <c r="BR79" s="9">
-        <v>26765446.6719632</v>
+        <v>21355418.628963199</v>
       </c>
       <c r="BS79" s="9">
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
     </row>
     <row r="80" spans="1:76" x14ac:dyDescent="0.25">
@@ -8442,51 +8442,51 @@
       </c>
       <c r="AK80">
         <f t="shared" si="13"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL80">
         <f t="shared" si="12"/>
-        <v>28893936.718333799</v>
+        <v>22573349.080770101</v>
       </c>
       <c r="AM80">
         <f t="shared" si="12"/>
-        <v>28857943.794199299</v>
+        <v>22518797.3881904</v>
       </c>
       <c r="AN80">
         <f t="shared" si="12"/>
-        <v>28808828.923994899</v>
+        <v>22430112.218256701</v>
       </c>
       <c r="AO80">
         <f t="shared" si="12"/>
-        <v>28505252.5548383</v>
+        <v>22190631.372056499</v>
       </c>
       <c r="AP80">
         <f t="shared" si="12"/>
-        <v>28241159.6850366</v>
+        <v>22162217.236221898</v>
       </c>
       <c r="AQ80">
         <f t="shared" si="12"/>
-        <v>27982587.1525281</v>
+        <v>22114758.494618401</v>
       </c>
       <c r="AR80">
         <f t="shared" si="12"/>
-        <v>27740172.0737832</v>
+        <v>22067299.753015</v>
       </c>
       <c r="AS80">
         <f t="shared" si="12"/>
-        <v>27404812.3927464</v>
+        <v>21830006.0449977</v>
       </c>
       <c r="AT80">
         <f t="shared" si="12"/>
-        <v>27085129.532354798</v>
+        <v>21592712.336980399</v>
       </c>
       <c r="AU80">
         <f t="shared" si="12"/>
-        <v>26765446.6719632</v>
+        <v>21355418.628963199</v>
       </c>
       <c r="AV80">
         <f t="shared" si="12"/>
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
       <c r="BF80" s="9" t="s">
         <v>16</v>
@@ -8495,40 +8495,40 @@
         <v>13</v>
       </c>
       <c r="BH80" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BI80" s="9">
-        <v>22058150.426998898</v>
+        <v>17234267.083616</v>
       </c>
       <c r="BJ80" s="9">
-        <v>22073061.040846702</v>
+        <v>17227507.173593301</v>
       </c>
       <c r="BK80" s="9">
-        <v>22113975.703834601</v>
+        <v>17219430.766439099</v>
       </c>
       <c r="BL80" s="9">
-        <v>21940649.727508198</v>
+        <v>17065947.234076601</v>
       </c>
       <c r="BM80" s="9">
-        <v>21777236.1247251</v>
+        <v>17077318.212728299</v>
       </c>
       <c r="BN80" s="9">
-        <v>21557776.393045101</v>
+        <v>17036946.599558499</v>
       </c>
       <c r="BO80" s="9">
-        <v>21338316.661365099</v>
+        <v>16995450.611678999</v>
       </c>
       <c r="BP80" s="9">
-        <v>21026547.822437402</v>
+        <v>16771105.0516364</v>
       </c>
       <c r="BQ80" s="9">
-        <v>20692050.614568599</v>
+        <v>16518650.123851901</v>
       </c>
       <c r="BR80" s="9">
-        <v>20319684.374441601</v>
+        <v>16238085.8283254</v>
       </c>
       <c r="BS80" s="9">
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
     </row>
     <row r="81" spans="35:71" x14ac:dyDescent="0.25">
@@ -8539,40 +8539,40 @@
         <v>14</v>
       </c>
       <c r="BH81" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BI81" s="9">
-        <v>25423302.071813099</v>
+        <v>19812407.377849899</v>
       </c>
       <c r="BJ81" s="9">
-        <v>25377885.1001563</v>
+        <v>19752244.6519926</v>
       </c>
       <c r="BK81" s="9">
-        <v>25307063.2626491</v>
+        <v>19649785.138600402</v>
       </c>
       <c r="BL81" s="9">
-        <v>25037187.786846399</v>
+        <v>19438341.628171999</v>
       </c>
       <c r="BM81" s="9">
-        <v>24801860.372979298</v>
+        <v>19434014.944238201</v>
       </c>
       <c r="BN81" s="9">
-        <v>24544289.226589799</v>
+        <v>19386466.5403171</v>
       </c>
       <c r="BO81" s="9">
-        <v>24301360.772673398</v>
+        <v>19337793.761686299</v>
       </c>
       <c r="BP81" s="9">
-        <v>23940712.796424799</v>
+        <v>19077564.247887202</v>
       </c>
       <c r="BQ81" s="9">
-        <v>23557872.608563401</v>
+        <v>18789225.366346098</v>
       </c>
       <c r="BR81" s="9">
-        <v>23137163.388443802</v>
+        <v>18472777.117063101</v>
       </c>
       <c r="BS81" s="9">
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
     </row>
     <row r="82" spans="35:71" x14ac:dyDescent="0.25">
@@ -8583,40 +8583,40 @@
         <v>15</v>
       </c>
       <c r="BH82" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BI82" s="9">
-        <v>28901261.260269299</v>
+        <v>22582690.460253999</v>
       </c>
       <c r="BJ82" s="9">
-        <v>28871639.920650899</v>
+        <v>22536629.3881904</v>
       </c>
       <c r="BK82" s="9">
-        <v>28832409.3472207</v>
+        <v>22462373.182385799</v>
       </c>
       <c r="BL82" s="9">
-        <v>28550843.993547998</v>
+        <v>22241574.1364436</v>
       </c>
       <c r="BM82" s="9">
-        <v>28303826.7018108</v>
+        <v>22227891.916996099</v>
       </c>
       <c r="BN82" s="9">
-        <v>28059191.890592702</v>
+        <v>22189945.876295801</v>
       </c>
       <c r="BO82" s="9">
-        <v>27829199.771847699</v>
+        <v>22150875.460885901</v>
       </c>
       <c r="BP82" s="9">
-        <v>27533233.471456099</v>
+        <v>21938657.763191301</v>
       </c>
       <c r="BQ82" s="9">
-        <v>27215074.959451601</v>
+        <v>21698330.697754599</v>
       </c>
       <c r="BR82" s="9">
-        <v>26859047.415189002</v>
+        <v>21429894.2645761</v>
       </c>
       <c r="BS82" s="9">
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
     </row>
     <row r="83" spans="35:71" x14ac:dyDescent="0.25">
@@ -8628,51 +8628,51 @@
       </c>
       <c r="AK83">
         <f>BH86</f>
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="AL83">
         <f t="shared" ref="AL83:AV85" si="14">BI86</f>
-        <v>22062118.046998899</v>
+        <v>17242152.839816</v>
       </c>
       <c r="AM83">
         <f t="shared" si="14"/>
-        <v>22080251.231191501</v>
+        <v>17242913.099248499</v>
       </c>
       <c r="AN83">
         <f t="shared" si="14"/>
-        <v>22125044.7527234</v>
+        <v>17248617.787772398</v>
       </c>
       <c r="AO83">
         <f t="shared" si="14"/>
-        <v>21972325.3035082</v>
+        <v>17116889.998463701</v>
       </c>
       <c r="AP83">
         <f t="shared" si="14"/>
-        <v>21827225.164725099</v>
+        <v>17142992.8935025</v>
       </c>
       <c r="AQ83">
         <f t="shared" si="14"/>
-        <v>21626934.833045099</v>
+        <v>17112133.981235899</v>
       </c>
       <c r="AR83">
         <f t="shared" si="14"/>
-        <v>21426644.501365099</v>
+        <v>17079026.3195499</v>
       </c>
       <c r="AS83">
         <f t="shared" si="14"/>
-        <v>21154968.901147101</v>
+        <v>16879756.769829899</v>
       </c>
       <c r="AT83">
         <f t="shared" si="14"/>
-        <v>20821996.041665301</v>
+        <v>16624268.484626099</v>
       </c>
       <c r="AU83">
         <f t="shared" si="14"/>
-        <v>20413285.1176675</v>
+        <v>16312561.4639383</v>
       </c>
       <c r="AV83">
         <f t="shared" si="14"/>
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
       <c r="BF83" s="9" t="s">
         <v>17</v>
@@ -8681,40 +8681,40 @@
         <v>13</v>
       </c>
       <c r="BH83" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BI83" s="9">
-        <v>22060134.236998901</v>
+        <v>17238209.961716</v>
       </c>
       <c r="BJ83" s="9">
-        <v>22076656.1360191</v>
+        <v>17235210.136420898</v>
       </c>
       <c r="BK83" s="9">
-        <v>22119510.228278998</v>
+        <v>17234024.2771057</v>
       </c>
       <c r="BL83" s="9">
-        <v>21956487.515508201</v>
+        <v>17091418.616270199</v>
       </c>
       <c r="BM83" s="9">
-        <v>21802230.644725099</v>
+        <v>17110155.553115401</v>
       </c>
       <c r="BN83" s="9">
-        <v>21592355.6130451</v>
+        <v>17074540.290397201</v>
       </c>
       <c r="BO83" s="9">
-        <v>21382480.581365101</v>
+        <v>17037238.465614501</v>
       </c>
       <c r="BP83" s="9">
-        <v>21090758.361792199</v>
+        <v>16825430.910733201</v>
       </c>
       <c r="BQ83" s="9">
-        <v>20757023.328116901</v>
+        <v>16571459.304238999</v>
       </c>
       <c r="BR83" s="9">
-        <v>20366484.7460545</v>
+        <v>16275323.646131899</v>
       </c>
       <c r="BS83" s="9">
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
     </row>
     <row r="84" spans="35:71" x14ac:dyDescent="0.25">
@@ -8726,51 +8726,51 @@
       </c>
       <c r="AK84">
         <f t="shared" ref="AK84:AK85" si="15">BH87</f>
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="AL84">
         <f t="shared" si="14"/>
-        <v>25430626.613748599</v>
+        <v>19821748.7573338</v>
       </c>
       <c r="AM84">
         <f t="shared" si="14"/>
-        <v>25391581.2266079</v>
+        <v>19770076.6519926</v>
       </c>
       <c r="AN84">
         <f t="shared" si="14"/>
-        <v>25330643.685874902</v>
+        <v>19682046.102729499</v>
       </c>
       <c r="AO84">
         <f t="shared" si="14"/>
-        <v>25082779.225556102</v>
+        <v>19489284.3925591</v>
       </c>
       <c r="AP84">
         <f t="shared" si="14"/>
-        <v>24864527.389753498</v>
+        <v>19499689.625012401</v>
       </c>
       <c r="AQ84">
         <f t="shared" si="14"/>
-        <v>24620893.9646543</v>
+        <v>19461653.9219945</v>
       </c>
       <c r="AR84">
         <f t="shared" si="14"/>
-        <v>24390388.470737901</v>
+        <v>19421369.4695573</v>
       </c>
       <c r="AS84">
         <f t="shared" si="14"/>
-        <v>24069133.875134502</v>
+        <v>19186215.966080699</v>
       </c>
       <c r="AT84">
         <f t="shared" si="14"/>
-        <v>23687818.035660099</v>
+        <v>18894843.727120299</v>
       </c>
       <c r="AU84">
         <f t="shared" si="14"/>
-        <v>23230764.1316696</v>
+        <v>18547252.752675999</v>
       </c>
       <c r="AV84">
         <f t="shared" si="14"/>
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
       <c r="BF84" s="9" t="s">
         <v>17</v>
@@ -8779,40 +8779,40 @@
         <v>14</v>
       </c>
       <c r="BH84" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BI84" s="9">
-        <v>25426964.342780899</v>
+        <v>19817078.067591801</v>
       </c>
       <c r="BJ84" s="9">
-        <v>25384733.163382102</v>
+        <v>19761160.6519926</v>
       </c>
       <c r="BK84" s="9">
-        <v>25318853.474261999</v>
+        <v>19665915.620664898</v>
       </c>
       <c r="BL84" s="9">
-        <v>25059983.506201301</v>
+        <v>19463813.010365602</v>
       </c>
       <c r="BM84" s="9">
-        <v>24833193.881366398</v>
+        <v>19466852.284625299</v>
       </c>
       <c r="BN84" s="9">
-        <v>24582591.5956221</v>
+        <v>19424060.231155802</v>
       </c>
       <c r="BO84" s="9">
-        <v>24345874.6217057</v>
+        <v>19379581.615621801</v>
       </c>
       <c r="BP84" s="9">
-        <v>24004923.3357797</v>
+        <v>19131890.1069839</v>
       </c>
       <c r="BQ84" s="9">
-        <v>23622845.3221117</v>
+        <v>18842034.546733201</v>
       </c>
       <c r="BR84" s="9">
-        <v>23183963.760056701</v>
+        <v>18510014.934869502</v>
       </c>
       <c r="BS84" s="9">
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
     </row>
     <row r="85" spans="35:71" x14ac:dyDescent="0.25">
@@ -8824,51 +8824,51 @@
       </c>
       <c r="AK85">
         <f t="shared" si="15"/>
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="AL85">
         <f t="shared" si="14"/>
-        <v>28908585.802204698</v>
+        <v>22592031.8397379</v>
       </c>
       <c r="AM85">
         <f t="shared" si="14"/>
-        <v>28885336.0471026</v>
+        <v>22554461.3881904</v>
       </c>
       <c r="AN85">
         <f t="shared" si="14"/>
-        <v>28855989.770446502</v>
+        <v>22494634.146514799</v>
       </c>
       <c r="AO85">
         <f t="shared" si="14"/>
-        <v>28596435.432257701</v>
+        <v>22292516.900830701</v>
       </c>
       <c r="AP85">
         <f t="shared" si="14"/>
-        <v>28366493.718584999</v>
+        <v>22293566.5977703</v>
       </c>
       <c r="AQ85">
         <f t="shared" si="14"/>
-        <v>28135796.628657199</v>
+        <v>22265133.257973298</v>
       </c>
       <c r="AR85">
         <f t="shared" si="14"/>
-        <v>27918227.469912201</v>
+        <v>22234451.168756898</v>
       </c>
       <c r="AS85">
         <f t="shared" si="14"/>
-        <v>27661654.550165702</v>
+        <v>22047309.481384799</v>
       </c>
       <c r="AT85">
         <f t="shared" si="14"/>
-        <v>27345020.386548299</v>
+        <v>21803949.0585288</v>
       </c>
       <c r="AU85">
         <f t="shared" si="14"/>
-        <v>26952648.1584148</v>
+        <v>21504369.900189001</v>
       </c>
       <c r="AV85">
         <f t="shared" si="14"/>
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
       <c r="BF85" s="9" t="s">
         <v>17</v>
@@ -8877,40 +8877,40 @@
         <v>15</v>
       </c>
       <c r="BH85" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BI85" s="9">
-        <v>28904923.531236999</v>
+        <v>22587361.149996001</v>
       </c>
       <c r="BJ85" s="9">
-        <v>28878487.983876701</v>
+        <v>22545545.3881904</v>
       </c>
       <c r="BK85" s="9">
-        <v>28844199.558833599</v>
+        <v>22478503.664450299</v>
       </c>
       <c r="BL85" s="9">
-        <v>28573639.7129029</v>
+        <v>22267045.518637199</v>
       </c>
       <c r="BM85" s="9">
-        <v>28335160.210197899</v>
+        <v>22260729.257383201</v>
       </c>
       <c r="BN85" s="9">
-        <v>28097494.259624898</v>
+        <v>22227539.5671345</v>
       </c>
       <c r="BO85" s="9">
-        <v>27873713.6208799</v>
+        <v>22192663.3148214</v>
       </c>
       <c r="BP85" s="9">
-        <v>27597444.0108109</v>
+        <v>21992983.622288</v>
       </c>
       <c r="BQ85" s="9">
-        <v>27280047.673</v>
+        <v>21751139.878141701</v>
       </c>
       <c r="BR85" s="9">
-        <v>26905847.786801901</v>
+        <v>21467132.0823825</v>
       </c>
       <c r="BS85" s="9">
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
     </row>
     <row r="86" spans="35:71" x14ac:dyDescent="0.25">
@@ -8921,40 +8921,40 @@
         <v>13</v>
       </c>
       <c r="BH86" s="9">
-        <v>22026789.267604399</v>
+        <v>17220951.1415915</v>
       </c>
       <c r="BI86" s="9">
-        <v>22062118.046998899</v>
+        <v>17242152.839816</v>
       </c>
       <c r="BJ86" s="9">
-        <v>22080251.231191501</v>
+        <v>17242913.099248499</v>
       </c>
       <c r="BK86" s="9">
-        <v>22125044.7527234</v>
+        <v>17248617.787772398</v>
       </c>
       <c r="BL86" s="9">
-        <v>21972325.3035082</v>
+        <v>17116889.998463701</v>
       </c>
       <c r="BM86" s="9">
-        <v>21827225.164725099</v>
+        <v>17142992.8935025</v>
       </c>
       <c r="BN86" s="9">
-        <v>21626934.833045099</v>
+        <v>17112133.981235899</v>
       </c>
       <c r="BO86" s="9">
-        <v>21426644.501365099</v>
+        <v>17079026.3195499</v>
       </c>
       <c r="BP86" s="9">
-        <v>21154968.901147101</v>
+        <v>16879756.769829899</v>
       </c>
       <c r="BQ86" s="9">
-        <v>20821996.041665301</v>
+        <v>16624268.484626099</v>
       </c>
       <c r="BR86" s="9">
-        <v>20413285.1176675</v>
+        <v>16312561.4639383</v>
       </c>
       <c r="BS86" s="9">
-        <v>19822857.763708699</v>
+        <v>15864304.308274301</v>
       </c>
     </row>
     <row r="87" spans="35:71" x14ac:dyDescent="0.25">
@@ -8965,40 +8965,40 @@
         <v>14</v>
       </c>
       <c r="BH87" s="9">
-        <v>25469993.761509299</v>
+        <v>19868867.556941699</v>
       </c>
       <c r="BI87" s="9">
-        <v>25430626.613748599</v>
+        <v>19821748.7573338</v>
       </c>
       <c r="BJ87" s="9">
-        <v>25391581.2266079</v>
+        <v>19770076.6519926</v>
       </c>
       <c r="BK87" s="9">
-        <v>25330643.685874902</v>
+        <v>19682046.102729499</v>
       </c>
       <c r="BL87" s="9">
-        <v>25082779.225556102</v>
+        <v>19489284.3925591</v>
       </c>
       <c r="BM87" s="9">
-        <v>24864527.389753498</v>
+        <v>19499689.625012401</v>
       </c>
       <c r="BN87" s="9">
-        <v>24620893.9646543</v>
+        <v>19461653.9219945</v>
       </c>
       <c r="BO87" s="9">
-        <v>24390388.470737901</v>
+        <v>19421369.4695573</v>
       </c>
       <c r="BP87" s="9">
-        <v>24069133.875134502</v>
+        <v>19186215.966080699</v>
       </c>
       <c r="BQ87" s="9">
-        <v>23687818.035660099</v>
+        <v>18894843.727120299</v>
       </c>
       <c r="BR87" s="9">
-        <v>23230764.1316696</v>
+        <v>18547252.752675999</v>
       </c>
       <c r="BS87" s="9">
-        <v>22582325.201719701</v>
+        <v>18055934.852504101</v>
       </c>
     </row>
     <row r="88" spans="35:71" x14ac:dyDescent="0.25">
@@ -9009,40 +9009,40 @@
         <v>15</v>
       </c>
       <c r="BH88" s="9">
-        <v>28917188.730918098</v>
+        <v>22609741.785489399</v>
       </c>
       <c r="BI88" s="9">
-        <v>28908585.802204698</v>
+        <v>22592031.8397379</v>
       </c>
       <c r="BJ88" s="9">
-        <v>28885336.0471026</v>
+        <v>22554461.3881904</v>
       </c>
       <c r="BK88" s="9">
-        <v>28855989.770446502</v>
+        <v>22494634.146514799</v>
       </c>
       <c r="BL88" s="9">
-        <v>28596435.432257701</v>
+        <v>22292516.900830701</v>
       </c>
       <c r="BM88" s="9">
-        <v>28366493.718584999</v>
+        <v>22293566.5977703</v>
       </c>
       <c r="BN88" s="9">
-        <v>28135796.628657199</v>
+        <v>22265133.257973298</v>
       </c>
       <c r="BO88" s="9">
-        <v>27918227.469912201</v>
+        <v>22234451.168756898</v>
       </c>
       <c r="BP88" s="9">
-        <v>27661654.550165702</v>
+        <v>22047309.481384799</v>
       </c>
       <c r="BQ88" s="9">
-        <v>27345020.386548299</v>
+        <v>21803949.0585288</v>
       </c>
       <c r="BR88" s="9">
-        <v>26952648.1584148</v>
+        <v>21504369.900189001</v>
       </c>
       <c r="BS88" s="9">
-        <v>26381827.239493299</v>
+        <v>21070666.179342501</v>
       </c>
     </row>
     <row r="97" spans="22:42" x14ac:dyDescent="0.25">
